--- a/data/database/Power_ThermalGen.xlsx
+++ b/data/database/Power_ThermalGen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A39995-B9EE-4B9E-8E37-3EC0B213688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B7220F-73E0-4F63-93E6-886BD6F68896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="ScenarioB" sheetId="106" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ScenarioA!$C$8:$Z$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ScenarioB!$C$8:$Z$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ScenarioA!$C$8:$Y$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ScenarioB!$C$8:$Y$27</definedName>
     <definedName name="businfo">#REF!</definedName>
     <definedName name="demand">#REF!</definedName>
     <definedName name="dsmdelaytime">#REF!</definedName>
@@ -41,8 +41,8 @@
     <definedName name="runofriver">#REF!</definedName>
     <definedName name="sCodeName">#REF!</definedName>
     <definedName name="storage">#REF!</definedName>
-    <definedName name="thermalgen" localSheetId="1">ScenarioB!$C$8:$Z$27</definedName>
-    <definedName name="thermalgen">ScenarioA!$C$8:$Z$27</definedName>
+    <definedName name="thermalgen" localSheetId="1">ScenarioB!$C$8:$Y$27</definedName>
+    <definedName name="thermalgen">ScenarioA!$C$8:$Y$27</definedName>
     <definedName name="weight_k">#REF!</definedName>
     <definedName name="weight_rp">#REF!</definedName>
     <definedName name="zones">#REF!</definedName>
@@ -254,32 +254,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="125">
   <si>
     <t>[MW]</t>
   </si>
   <si>
-    <t>[p.u.]</t>
-  </si>
-  <si>
-    <t>SlopeVarCost</t>
-  </si>
-  <si>
-    <t>InterVarCost</t>
-  </si>
-  <si>
-    <t>StartupCost</t>
-  </si>
-  <si>
     <t>[€/MWh]</t>
   </si>
   <si>
     <t>FuelCost</t>
   </si>
   <si>
-    <t>Aux</t>
-  </si>
-  <si>
     <t>OMVarCost</t>
   </si>
   <si>
@@ -292,18 +277,6 @@
     <t>EFOR</t>
   </si>
   <si>
-    <t>[€/Mcal]</t>
-  </si>
-  <si>
-    <t>[Mcal/MWh]</t>
-  </si>
-  <si>
-    <t>[Mcal/h]</t>
-  </si>
-  <si>
-    <t>[Mcal]</t>
-  </si>
-  <si>
     <t>RampUp</t>
   </si>
   <si>
@@ -529,9 +502,6 @@
     <t>dataSource</t>
   </si>
   <si>
-    <t>Which package this node belongs to</t>
-  </si>
-  <si>
     <t>Where the data for the entry comes from</t>
   </si>
   <si>
@@ -554,6 +524,111 @@
   </si>
   <si>
     <t>v0.0.2</t>
+  </si>
+  <si>
+    <t>[MWh]</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>[MWh/h]</t>
+  </si>
+  <si>
+    <t>StartupConsumption</t>
+  </si>
+  <si>
+    <t>CommitConsumption</t>
+  </si>
+  <si>
+    <t>[%, 0-1]</t>
+  </si>
+  <si>
+    <t>Generator name</t>
+  </si>
+  <si>
+    <t>Corresponding technology</t>
+  </si>
+  <si>
+    <t>Node where generator is connected</t>
+  </si>
+  <si>
+    <t>Whether unit exists (1) or not (0)</t>
+  </si>
+  <si>
+    <t>Maximum active power output of the generator</t>
+  </si>
+  <si>
+    <t>Minimum active power output of the generator</t>
+  </si>
+  <si>
+    <t>Rate at which the generator can increase its output per time step</t>
+  </si>
+  <si>
+    <t>Rate at which the generator can decrease ist output per time step</t>
+  </si>
+  <si>
+    <t>Minimum time the generator has to be on after a startup</t>
+  </si>
+  <si>
+    <t>Minimum time the generator has to be off after a shutdown</t>
+  </si>
+  <si>
+    <t>Maximum reactive power output of the generator</t>
+  </si>
+  <si>
+    <t>Minimum reactive power of the generator</t>
+  </si>
+  <si>
+    <t>Inertia constant H of the generator</t>
+  </si>
+  <si>
+    <t>Fuel cost of the thermal generator</t>
+  </si>
+  <si>
+    <t>Efficiency calculated as 1/input for 1 MWh, i.e. 0.5 (or 50%) if 2 MWh fuel are required for 1 MWh electricity</t>
+  </si>
+  <si>
+    <t>Consumption while unit is turned on (regardless of output)</t>
+  </si>
+  <si>
+    <t>Operation and maintenance cost of the generator</t>
+  </si>
+  <si>
+    <t>Consumption for each startup</t>
+  </si>
+  <si>
+    <t>Equivalend forced outage rate of the generator</t>
+  </si>
+  <si>
+    <t>Whether the model can invest in the generator (1) or not (0)</t>
+  </si>
+  <si>
+    <t>Annualized investment cost for the generator</t>
+  </si>
+  <si>
+    <t>Firm capacity coefficient of the generator</t>
+  </si>
+  <si>
+    <t>Specific CO2 emissions of the generator</t>
+  </si>
+  <si>
+    <t>Year where it is commissioned (1.1.xxxx)</t>
+  </si>
+  <si>
+    <t>Year where it is de-commissioned (31.12.xxxx)</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Which package this belongs to</t>
+  </si>
+  <si>
+    <t>Scenario-dependent</t>
   </si>
 </sst>
 </file>
@@ -562,7 +637,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -746,7 +821,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -809,7 +884,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -819,6 +894,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Data" xfId="1" xr:uid="{226E918E-BB32-45FB-8600-16B83FFE7285}"/>
@@ -1147,7 +1226,7 @@
   <sheetPr codeName="Tabelle2">
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AE58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
@@ -1160,142 +1239,136 @@
   <cols>
     <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="12" style="2" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12" style="2" customWidth="1"/>
-    <col min="26" max="26" width="16" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14" style="2" customWidth="1"/>
-    <col min="28" max="30" width="11.42578125" style="2"/>
-    <col min="31" max="31" width="20" style="2" customWidth="1"/>
-    <col min="32" max="32" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="11.42578125" style="2"/>
+    <col min="3" max="16" width="13.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="2" customWidth="1"/>
+    <col min="18" max="25" width="14.42578125" style="2" customWidth="1"/>
+    <col min="26" max="27" width="19.85546875" style="2" customWidth="1"/>
+    <col min="28" max="29" width="10.42578125" style="2" customWidth="1"/>
+    <col min="30" max="31" width="20.42578125" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="E3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1321,199 +1394,301 @@
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
+      <c r="AD4" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="AE4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="AE5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="AE6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF6" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB7" s="4"/>
+      <c r="Z7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="AC7" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AD7" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F8" s="19">
         <v>0</v>
@@ -1545,11 +1720,11 @@
       <c r="O8" s="20">
         <v>8</v>
       </c>
-      <c r="P8" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>15</v>
+      <c r="P8" s="23">
+        <v>860</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>57.333333333333336</v>
       </c>
       <c r="R8" s="21">
         <v>0</v>
@@ -1557,14 +1732,14 @@
       <c r="S8" s="23">
         <v>0</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="23">
         <v>0</v>
       </c>
       <c r="U8" s="21"/>
       <c r="V8" s="19">
         <v>0</v>
       </c>
-      <c r="W8" s="20">
+      <c r="W8" s="23">
         <v>0</v>
       </c>
       <c r="X8" s="21">
@@ -1573,39 +1748,36 @@
       <c r="Y8" s="22">
         <v>0</v>
       </c>
-      <c r="Z8" s="20">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="21">
+      <c r="Z8" s="21">
         <v>2010</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AA8" s="18">
         <v>2050</v>
       </c>
+      <c r="AB8" s="16">
+        <v>47.491300000000003</v>
+      </c>
       <c r="AC8" s="16">
-        <v>47.491300000000003</v>
-      </c>
-      <c r="AD8" s="16">
         <v>12.818199999999999</v>
       </c>
+      <c r="AD8" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE8" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF8" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F9" s="19">
         <v>1</v>
@@ -1637,26 +1809,26 @@
       <c r="O9" s="20">
         <v>6</v>
       </c>
-      <c r="P9" s="22">
-        <v>0.02</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>2400</v>
-      </c>
-      <c r="R9" s="21">
-        <v>50000</v>
+      <c r="P9" s="23">
+        <v>17.2</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="R9" s="23">
+        <v>58.139534883720927</v>
       </c>
       <c r="S9" s="23">
         <v>6</v>
       </c>
-      <c r="T9" s="21">
-        <v>2000000</v>
+      <c r="T9" s="23">
+        <v>2325.5813953488373</v>
       </c>
       <c r="U9" s="21"/>
       <c r="V9" s="19">
         <v>0</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="23">
         <v>145591.30710000001</v>
       </c>
       <c r="X9" s="21">
@@ -1665,39 +1837,36 @@
       <c r="Y9" s="22">
         <v>0.35499999999999998</v>
       </c>
-      <c r="Z9" s="20">
-        <v>49.700699999999998</v>
-      </c>
-      <c r="AA9" s="21">
+      <c r="Z9" s="21">
         <v>2010</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AA9" s="18">
         <v>2050</v>
       </c>
+      <c r="AB9" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC9" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD9" s="16">
         <v>13.746700000000001</v>
       </c>
+      <c r="AD9" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE9" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF9" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F10" s="19">
         <v>0</v>
@@ -1729,26 +1898,26 @@
       <c r="O10" s="20">
         <v>6</v>
       </c>
-      <c r="P10" s="22">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>2300</v>
-      </c>
-      <c r="R10" s="21">
-        <v>50000</v>
+      <c r="P10" s="23">
+        <v>17.63</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>0.37391304347826088</v>
+      </c>
+      <c r="R10" s="23">
+        <v>58.139534883720927</v>
       </c>
       <c r="S10" s="23">
         <v>6.05</v>
       </c>
-      <c r="T10" s="21">
-        <v>2000000</v>
+      <c r="T10" s="23">
+        <v>2325.5813953488373</v>
       </c>
       <c r="U10" s="21"/>
       <c r="V10" s="19">
         <v>0</v>
       </c>
-      <c r="W10" s="20">
+      <c r="W10" s="23">
         <v>146591.30710000001</v>
       </c>
       <c r="X10" s="21">
@@ -1757,39 +1926,36 @@
       <c r="Y10" s="22">
         <v>0.33500000000000002</v>
       </c>
-      <c r="Z10" s="20">
-        <v>50.923699999999997</v>
-      </c>
-      <c r="AA10" s="21">
+      <c r="Z10" s="21">
         <v>2010</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AA10" s="18">
         <v>2050</v>
       </c>
+      <c r="AB10" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC10" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD10" s="16">
         <v>13.746700000000001</v>
       </c>
+      <c r="AD10" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE10" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF10" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F11" s="19">
         <v>0</v>
@@ -1821,26 +1987,26 @@
       <c r="O11" s="20">
         <v>6</v>
       </c>
-      <c r="P11" s="22">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>2300</v>
-      </c>
-      <c r="R11" s="21">
-        <v>50000</v>
+      <c r="P11" s="23">
+        <v>18.060000000000002</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0.37391304347826088</v>
+      </c>
+      <c r="R11" s="23">
+        <v>58.139534883720927</v>
       </c>
       <c r="S11" s="23">
         <v>6.1</v>
       </c>
-      <c r="T11" s="21">
-        <v>2000000</v>
+      <c r="T11" s="23">
+        <v>2325.5813953488373</v>
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="19">
         <v>0</v>
       </c>
-      <c r="W11" s="20">
+      <c r="W11" s="23">
         <v>147591.30710000001</v>
       </c>
       <c r="X11" s="21">
@@ -1849,39 +2015,36 @@
       <c r="Y11" s="22">
         <v>0.33200000000000002</v>
       </c>
-      <c r="Z11" s="20">
-        <v>52.648899999999998</v>
-      </c>
-      <c r="AA11" s="21">
+      <c r="Z11" s="21">
         <v>2010</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AA11" s="18">
         <v>2050</v>
       </c>
+      <c r="AB11" s="16">
+        <v>46.561055000000003</v>
+      </c>
       <c r="AC11" s="16">
-        <v>46.561055000000003</v>
-      </c>
-      <c r="AD11" s="16">
         <v>14.479570000000001</v>
       </c>
+      <c r="AD11" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE11" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF11" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F12" s="19">
         <v>0</v>
@@ -1913,26 +2076,26 @@
       <c r="O12" s="20">
         <v>6</v>
       </c>
-      <c r="P12" s="22">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>2200</v>
-      </c>
-      <c r="R12" s="21">
-        <v>50000</v>
+      <c r="P12" s="23">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>0.39090909090909093</v>
+      </c>
+      <c r="R12" s="23">
+        <v>58.139534883720927</v>
       </c>
       <c r="S12" s="23">
         <v>6.15</v>
       </c>
-      <c r="T12" s="21">
-        <v>2000000</v>
+      <c r="T12" s="23">
+        <v>2325.5813953488373</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="19">
         <v>0</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="23">
         <v>148591.30710000001</v>
       </c>
       <c r="X12" s="21">
@@ -1941,39 +2104,36 @@
       <c r="Y12" s="22">
         <v>0.31900000000000001</v>
       </c>
-      <c r="Z12" s="20">
-        <v>49.143999999999998</v>
-      </c>
-      <c r="AA12" s="21">
+      <c r="Z12" s="21">
         <v>2010</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AA12" s="18">
         <v>2050</v>
       </c>
+      <c r="AB12" s="16">
+        <v>47.055199999999999</v>
+      </c>
       <c r="AC12" s="16">
-        <v>47.055199999999999</v>
-      </c>
-      <c r="AD12" s="16">
         <v>9.9000199999999996</v>
       </c>
+      <c r="AD12" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE12" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF12" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F13" s="19">
         <v>0</v>
@@ -2005,26 +2165,26 @@
       <c r="O13" s="20">
         <v>4</v>
       </c>
-      <c r="P13" s="22">
-        <v>0.03</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R13" s="21">
-        <v>300000</v>
+      <c r="P13" s="23">
+        <v>25.8</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R13" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S13" s="23">
         <v>3.8</v>
       </c>
-      <c r="T13" s="21">
-        <v>1000000</v>
+      <c r="T13" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U13" s="21"/>
       <c r="V13" s="19">
         <v>1</v>
       </c>
-      <c r="W13" s="20">
+      <c r="W13" s="23">
         <v>41818.779699999999</v>
       </c>
       <c r="X13" s="21">
@@ -2033,39 +2193,36 @@
       <c r="Y13" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z13" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA13" s="21">
+      <c r="Z13" s="21">
         <v>2010</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AA13" s="18">
         <v>2050</v>
       </c>
+      <c r="AB13" s="16">
+        <v>47.066462000000001</v>
+      </c>
       <c r="AC13" s="16">
-        <v>47.066462000000001</v>
-      </c>
-      <c r="AD13" s="16">
         <v>9.9157949999999992</v>
       </c>
+      <c r="AD13" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE13" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF13" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F14" s="19">
         <v>0</v>
@@ -2097,26 +2254,26 @@
       <c r="O14" s="20">
         <v>4</v>
       </c>
-      <c r="P14" s="22">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R14" s="21">
-        <v>300000</v>
+      <c r="P14" s="23">
+        <v>27.52</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R14" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S14" s="23">
         <v>3.85</v>
       </c>
-      <c r="T14" s="21">
-        <v>1000000</v>
+      <c r="T14" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U14" s="21"/>
       <c r="V14" s="19">
         <v>0</v>
       </c>
-      <c r="W14" s="20">
+      <c r="W14" s="23">
         <v>42818.779699999999</v>
       </c>
       <c r="X14" s="21">
@@ -2125,39 +2282,36 @@
       <c r="Y14" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z14" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA14" s="21">
+      <c r="Z14" s="21">
         <v>2010</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AA14" s="18">
         <v>2050</v>
       </c>
+      <c r="AB14" s="16">
+        <v>47.491300000000003</v>
+      </c>
       <c r="AC14" s="16">
-        <v>47.491300000000003</v>
-      </c>
-      <c r="AD14" s="16">
         <v>12.818199999999999</v>
       </c>
+      <c r="AD14" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE14" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF14" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F15" s="19">
         <v>0</v>
@@ -2189,26 +2343,26 @@
       <c r="O15" s="20">
         <v>4</v>
       </c>
-      <c r="P15" s="22">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="Q15" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R15" s="21">
-        <v>300000</v>
+      <c r="P15" s="23">
+        <v>29.240000000000002</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R15" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S15" s="23">
         <v>3.9</v>
       </c>
-      <c r="T15" s="21">
-        <v>1000000</v>
+      <c r="T15" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U15" s="21"/>
       <c r="V15" s="19">
         <v>0</v>
       </c>
-      <c r="W15" s="20">
+      <c r="W15" s="23">
         <v>43818.779699999999</v>
       </c>
       <c r="X15" s="21">
@@ -2217,39 +2371,36 @@
       <c r="Y15" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z15" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA15" s="21">
+      <c r="Z15" s="21">
         <v>2010</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AA15" s="18">
         <v>2050</v>
       </c>
+      <c r="AB15" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC15" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD15" s="16">
         <v>13.746700000000001</v>
       </c>
-      <c r="AE15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF15" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE15" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F16" s="19">
         <v>0</v>
@@ -2281,26 +2432,26 @@
       <c r="O16" s="20">
         <v>4</v>
       </c>
-      <c r="P16" s="22">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R16" s="21">
-        <v>300000</v>
+      <c r="P16" s="23">
+        <v>30.959999999999997</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R16" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S16" s="23">
         <v>3.95</v>
       </c>
-      <c r="T16" s="21">
-        <v>1000000</v>
+      <c r="T16" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U16" s="21"/>
       <c r="V16" s="19">
         <v>0</v>
       </c>
-      <c r="W16" s="20">
+      <c r="W16" s="23">
         <v>44818.779699999999</v>
       </c>
       <c r="X16" s="21">
@@ -2309,41 +2460,38 @@
       <c r="Y16" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z16" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA16" s="21">
+      <c r="Z16" s="21">
         <v>2010</v>
       </c>
-      <c r="AB16" s="18">
+      <c r="AA16" s="18">
         <v>2050</v>
       </c>
+      <c r="AB16" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC16" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD16" s="16">
         <v>13.746700000000001</v>
       </c>
-      <c r="AE16" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF16" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD16" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE16" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F17" s="19">
         <v>0</v>
@@ -2375,26 +2523,26 @@
       <c r="O17" s="20">
         <v>4</v>
       </c>
-      <c r="P17" s="22">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R17" s="21">
-        <v>300000</v>
+      <c r="P17" s="23">
+        <v>32.68</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R17" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S17" s="23">
         <v>4</v>
       </c>
-      <c r="T17" s="21">
-        <v>1000000</v>
+      <c r="T17" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="19">
         <v>0</v>
       </c>
-      <c r="W17" s="20">
+      <c r="W17" s="23">
         <v>45818.779699999999</v>
       </c>
       <c r="X17" s="21">
@@ -2403,39 +2551,36 @@
       <c r="Y17" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z17" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA17" s="21">
+      <c r="Z17" s="21">
         <v>2010</v>
       </c>
-      <c r="AB17" s="18">
+      <c r="AA17" s="18">
         <v>2050</v>
       </c>
+      <c r="AB17" s="16">
+        <v>46.561055000000003</v>
+      </c>
       <c r="AC17" s="16">
-        <v>46.561055000000003</v>
-      </c>
-      <c r="AD17" s="16">
         <v>14.479570000000001</v>
       </c>
+      <c r="AD17" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE17" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF17" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F18" s="19">
         <v>0</v>
@@ -2467,26 +2612,26 @@
       <c r="O18" s="20">
         <v>4</v>
       </c>
-      <c r="P18" s="22">
-        <v>0.04</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R18" s="21">
-        <v>300000</v>
+      <c r="P18" s="23">
+        <v>34.4</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R18" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S18" s="23">
         <v>4.05</v>
       </c>
-      <c r="T18" s="21">
-        <v>1000000</v>
+      <c r="T18" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U18" s="21"/>
       <c r="V18" s="19">
         <v>0</v>
       </c>
-      <c r="W18" s="20">
+      <c r="W18" s="23">
         <v>46818.779699999999</v>
       </c>
       <c r="X18" s="21">
@@ -2495,39 +2640,36 @@
       <c r="Y18" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z18" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA18" s="21">
+      <c r="Z18" s="21">
         <v>2010</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AA18" s="18">
         <v>2050</v>
       </c>
+      <c r="AB18" s="16">
+        <v>47.055199999999999</v>
+      </c>
       <c r="AC18" s="16">
-        <v>47.055199999999999</v>
-      </c>
-      <c r="AD18" s="16">
         <v>9.9000199999999996</v>
       </c>
+      <c r="AD18" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE18" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF18" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F19" s="19">
         <v>0</v>
@@ -2559,26 +2701,26 @@
       <c r="O19" s="20">
         <v>4</v>
       </c>
-      <c r="P19" s="22">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R19" s="21">
-        <v>300000</v>
+      <c r="P19" s="23">
+        <v>36.120000000000005</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R19" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S19" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="T19" s="21">
-        <v>1000000</v>
+      <c r="T19" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="19">
         <v>0</v>
       </c>
-      <c r="W19" s="20">
+      <c r="W19" s="23">
         <v>47818.779699999999</v>
       </c>
       <c r="X19" s="21">
@@ -2587,39 +2729,36 @@
       <c r="Y19" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z19" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA19" s="21">
+      <c r="Z19" s="21">
         <v>2010</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AA19" s="18">
         <v>2050</v>
       </c>
+      <c r="AB19" s="16">
+        <v>47.066462000000001</v>
+      </c>
       <c r="AC19" s="16">
-        <v>47.066462000000001</v>
-      </c>
-      <c r="AD19" s="16">
         <v>9.9157949999999992</v>
       </c>
+      <c r="AD19" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE19" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF19" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F20" s="19">
         <v>0</v>
@@ -2651,26 +2790,26 @@
       <c r="O20" s="20">
         <v>4</v>
       </c>
-      <c r="P20" s="22">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R20" s="21">
-        <v>300000</v>
+      <c r="P20" s="23">
+        <v>37.839999999999996</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R20" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S20" s="23">
         <v>4.1500000000000004</v>
       </c>
-      <c r="T20" s="21">
-        <v>1000000</v>
+      <c r="T20" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U20" s="21"/>
       <c r="V20" s="19">
         <v>0</v>
       </c>
-      <c r="W20" s="20">
+      <c r="W20" s="23">
         <v>48818.779699999999</v>
       </c>
       <c r="X20" s="21">
@@ -2679,39 +2818,36 @@
       <c r="Y20" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z20" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA20" s="21">
+      <c r="Z20" s="21">
         <v>2010</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AA20" s="18">
         <v>2050</v>
       </c>
+      <c r="AB20" s="16">
+        <v>47.491300000000003</v>
+      </c>
       <c r="AC20" s="16">
-        <v>47.491300000000003</v>
-      </c>
-      <c r="AD20" s="16">
         <v>12.818199999999999</v>
       </c>
+      <c r="AD20" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE20" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF20" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F21" s="19">
         <v>0</v>
@@ -2743,26 +2879,26 @@
       <c r="O21" s="20">
         <v>4</v>
       </c>
-      <c r="P21" s="22">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R21" s="21">
-        <v>300000</v>
+      <c r="P21" s="23">
+        <v>39.56</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R21" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S21" s="23">
         <v>4.2</v>
       </c>
-      <c r="T21" s="21">
-        <v>1000000</v>
+      <c r="T21" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U21" s="21"/>
       <c r="V21" s="19">
         <v>0</v>
       </c>
-      <c r="W21" s="20">
+      <c r="W21" s="23">
         <v>49818.779699999999</v>
       </c>
       <c r="X21" s="21">
@@ -2771,39 +2907,36 @@
       <c r="Y21" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z21" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA21" s="21">
+      <c r="Z21" s="21">
         <v>2010</v>
       </c>
-      <c r="AB21" s="18">
+      <c r="AA21" s="18">
         <v>2050</v>
       </c>
+      <c r="AB21" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC21" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD21" s="16">
         <v>13.746700000000001</v>
       </c>
+      <c r="AD21" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE21" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF21" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F22" s="19">
         <v>1</v>
@@ -2835,26 +2968,26 @@
       <c r="O22" s="20">
         <v>2.5</v>
       </c>
-      <c r="P22" s="22">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="Q22" s="21">
-        <v>2000</v>
-      </c>
-      <c r="R22" s="21">
-        <v>100000</v>
+      <c r="P22" s="23">
+        <v>26.058</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="R22" s="23">
+        <v>116.27906976744185</v>
       </c>
       <c r="S22" s="23">
         <v>4.03</v>
       </c>
-      <c r="T22" s="21">
+      <c r="T22" s="23">
         <v>0</v>
       </c>
       <c r="U22" s="21"/>
       <c r="V22" s="19">
         <v>0</v>
       </c>
-      <c r="W22" s="20">
+      <c r="W22" s="23">
         <v>24781.499100000001</v>
       </c>
       <c r="X22" s="21">
@@ -2863,39 +2996,36 @@
       <c r="Y22" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z22" s="20">
-        <v>67.5</v>
-      </c>
-      <c r="AA22" s="21">
+      <c r="Z22" s="21">
         <v>2010</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AA22" s="18">
         <v>2050</v>
       </c>
+      <c r="AB22" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC22" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD22" s="16">
         <v>13.746700000000001</v>
       </c>
+      <c r="AD22" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE22" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF22" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F23" s="19">
         <v>0</v>
@@ -2927,26 +3057,26 @@
       <c r="O23" s="20">
         <v>2.5</v>
       </c>
-      <c r="P23" s="22">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="Q23" s="21">
-        <v>2000</v>
-      </c>
-      <c r="R23" s="21">
-        <v>100000</v>
+      <c r="P23" s="23">
+        <v>26.315999999999999</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="R23" s="23">
+        <v>116.27906976744185</v>
       </c>
       <c r="S23" s="23">
         <v>4.0599999999999996</v>
       </c>
-      <c r="T23" s="21">
+      <c r="T23" s="23">
         <v>0</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="19">
         <v>0</v>
       </c>
-      <c r="W23" s="20">
+      <c r="W23" s="23">
         <v>25781.499100000001</v>
       </c>
       <c r="X23" s="21">
@@ -2955,39 +3085,36 @@
       <c r="Y23" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z23" s="20">
-        <v>67.5</v>
-      </c>
-      <c r="AA23" s="21">
+      <c r="Z23" s="21">
         <v>2010</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AA23" s="18">
         <v>2050</v>
       </c>
+      <c r="AB23" s="16">
+        <v>46.561055000000003</v>
+      </c>
       <c r="AC23" s="16">
-        <v>46.561055000000003</v>
-      </c>
-      <c r="AD23" s="16">
         <v>14.479570000000001</v>
       </c>
+      <c r="AD23" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE23" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF23" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F24" s="19">
         <v>1</v>
@@ -3019,26 +3146,26 @@
       <c r="O24" s="20">
         <v>2.5</v>
       </c>
-      <c r="P24" s="22">
-        <v>3.09E-2</v>
-      </c>
-      <c r="Q24" s="21">
-        <v>2000</v>
-      </c>
-      <c r="R24" s="21">
-        <v>100000</v>
+      <c r="P24" s="23">
+        <v>26.574000000000002</v>
+      </c>
+      <c r="Q24" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="R24" s="23">
+        <v>116.27906976744185</v>
       </c>
       <c r="S24" s="23">
         <v>4.09</v>
       </c>
-      <c r="T24" s="21">
+      <c r="T24" s="23">
         <v>0</v>
       </c>
       <c r="U24" s="21"/>
       <c r="V24" s="19">
         <v>1</v>
       </c>
-      <c r="W24" s="20">
+      <c r="W24" s="23">
         <v>26781.499100000001</v>
       </c>
       <c r="X24" s="21">
@@ -3047,39 +3174,36 @@
       <c r="Y24" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z24" s="20">
-        <v>67.5</v>
-      </c>
-      <c r="AA24" s="21">
+      <c r="Z24" s="21">
         <v>2010</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AA24" s="18">
         <v>2050</v>
       </c>
+      <c r="AB24" s="16">
+        <v>47.055199999999999</v>
+      </c>
       <c r="AC24" s="16">
-        <v>47.055199999999999</v>
-      </c>
-      <c r="AD24" s="16">
         <v>9.9000199999999996</v>
       </c>
+      <c r="AD24" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE24" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF24" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F25" s="19">
         <v>1</v>
@@ -3111,26 +3235,26 @@
       <c r="O25" s="20">
         <v>2.5</v>
       </c>
-      <c r="P25" s="22">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>2000</v>
-      </c>
-      <c r="R25" s="21">
-        <v>100000</v>
+      <c r="P25" s="23">
+        <v>26.831999999999997</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="R25" s="23">
+        <v>116.27906976744185</v>
       </c>
       <c r="S25" s="23">
         <v>4.12</v>
       </c>
-      <c r="T25" s="21">
+      <c r="T25" s="23">
         <v>0</v>
       </c>
       <c r="U25" s="21"/>
       <c r="V25" s="19">
         <v>1</v>
       </c>
-      <c r="W25" s="20">
+      <c r="W25" s="23">
         <v>27781.499100000001</v>
       </c>
       <c r="X25" s="21">
@@ -3139,39 +3263,36 @@
       <c r="Y25" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z25" s="20">
-        <v>67.5</v>
-      </c>
-      <c r="AA25" s="21">
+      <c r="Z25" s="21">
         <v>2010</v>
       </c>
-      <c r="AB25" s="18">
+      <c r="AA25" s="18">
         <v>2050</v>
       </c>
+      <c r="AB25" s="16">
+        <v>47.066462000000001</v>
+      </c>
       <c r="AC25" s="16">
-        <v>47.066462000000001</v>
-      </c>
-      <c r="AD25" s="16">
         <v>9.9157949999999992</v>
       </c>
-      <c r="AE25" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF25" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD25" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE25" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F26" s="19">
         <v>1</v>
@@ -3203,26 +3324,26 @@
       <c r="O26" s="20">
         <v>2.5</v>
       </c>
-      <c r="P26" s="22">
-        <v>3.15E-2</v>
-      </c>
-      <c r="Q26" s="21">
-        <v>2000</v>
-      </c>
-      <c r="R26" s="21">
-        <v>100000</v>
+      <c r="P26" s="23">
+        <v>27.09</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="R26" s="23">
+        <v>116.27906976744185</v>
       </c>
       <c r="S26" s="23">
         <v>4.1500000000000004</v>
       </c>
-      <c r="T26" s="21">
+      <c r="T26" s="23">
         <v>0</v>
       </c>
       <c r="U26" s="21"/>
       <c r="V26" s="19">
         <v>0</v>
       </c>
-      <c r="W26" s="20">
+      <c r="W26" s="23">
         <v>28781.499100000001</v>
       </c>
       <c r="X26" s="21">
@@ -3231,39 +3352,36 @@
       <c r="Y26" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z26" s="20">
-        <v>67.5</v>
-      </c>
-      <c r="AA26" s="21">
+      <c r="Z26" s="21">
         <v>2010</v>
       </c>
-      <c r="AB26" s="18">
+      <c r="AA26" s="18">
         <v>2050</v>
       </c>
+      <c r="AB26" s="16">
+        <v>47.491300000000003</v>
+      </c>
       <c r="AC26" s="16">
-        <v>47.491300000000003</v>
-      </c>
-      <c r="AD26" s="16">
         <v>12.818199999999999</v>
       </c>
-      <c r="AE26" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF26" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD26" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE26" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F27" s="19">
         <v>0</v>
@@ -3295,26 +3413,26 @@
       <c r="O27" s="20">
         <v>2.5</v>
       </c>
-      <c r="P27" s="22">
-        <v>0.06</v>
-      </c>
-      <c r="Q27" s="21">
-        <v>2000</v>
-      </c>
-      <c r="R27" s="21">
-        <v>300000</v>
+      <c r="P27" s="23">
+        <v>51.6</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="R27" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S27" s="23">
         <v>3</v>
       </c>
-      <c r="T27" s="21">
-        <v>1000000</v>
+      <c r="T27" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U27" s="21"/>
       <c r="V27" s="19">
         <v>0</v>
       </c>
-      <c r="W27" s="20">
+      <c r="W27" s="23">
         <v>43367.623399999997</v>
       </c>
       <c r="X27" s="21">
@@ -3323,27 +3441,117 @@
       <c r="Y27" s="22">
         <v>0.254</v>
       </c>
-      <c r="Z27" s="20">
-        <v>160.7424</v>
-      </c>
-      <c r="AA27" s="21">
+      <c r="Z27" s="21">
         <v>2010</v>
       </c>
-      <c r="AB27" s="18">
+      <c r="AA27" s="18">
         <v>2050</v>
       </c>
+      <c r="AB27" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC27" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD27" s="16">
         <v>13.746700000000001</v>
       </c>
+      <c r="AD27" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE27" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF27" s="17" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O35" s="26"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="28"/>
+    </row>
+    <row r="36" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="P36" s="27"/>
+      <c r="Q36" s="28"/>
+    </row>
+    <row r="37" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="P37" s="27"/>
+      <c r="Q37" s="28"/>
+    </row>
+    <row r="38" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="P38" s="27"/>
+      <c r="Q38" s="28"/>
+    </row>
+    <row r="39" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="P39" s="27"/>
+      <c r="Q39" s="28"/>
+    </row>
+    <row r="40" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="P40" s="27"/>
+      <c r="Q40" s="28"/>
+    </row>
+    <row r="41" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="P41" s="27"/>
+      <c r="Q41" s="28"/>
+    </row>
+    <row r="42" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="P42" s="27"/>
+      <c r="Q42" s="28"/>
+    </row>
+    <row r="43" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="P43" s="27"/>
+      <c r="Q43" s="28"/>
+    </row>
+    <row r="44" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="P44" s="27"/>
+      <c r="Q44" s="28"/>
+    </row>
+    <row r="45" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="P45" s="27"/>
+      <c r="Q45" s="28"/>
+    </row>
+    <row r="46" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="P46" s="27"/>
+      <c r="Q46" s="28"/>
+    </row>
+    <row r="47" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="P47" s="27"/>
+      <c r="Q47" s="28"/>
+    </row>
+    <row r="48" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="P48" s="27"/>
+      <c r="Q48" s="28"/>
+    </row>
+    <row r="49" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P49" s="27"/>
+      <c r="Q49" s="28"/>
+    </row>
+    <row r="50" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P50" s="27"/>
+      <c r="Q50" s="28"/>
+    </row>
+    <row r="51" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P51" s="27"/>
+      <c r="Q51" s="28"/>
+    </row>
+    <row r="52" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P52" s="27"/>
+      <c r="Q52" s="28"/>
+    </row>
+    <row r="53" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P53" s="27"/>
+      <c r="Q53" s="28"/>
+    </row>
+    <row r="54" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P54" s="27"/>
+      <c r="Q54" s="28"/>
+    </row>
+    <row r="55" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P55" s="27"/>
+    </row>
+    <row r="56" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P56" s="27"/>
+    </row>
+    <row r="57" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P57" s="27"/>
+    </row>
+    <row r="58" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P58" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3357,12 +3565,12 @@
   <sheetPr>
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -3370,142 +3578,136 @@
   <cols>
     <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="12" style="2" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12" style="2" customWidth="1"/>
-    <col min="26" max="26" width="16" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14" style="2" customWidth="1"/>
-    <col min="28" max="30" width="11.42578125" style="2"/>
-    <col min="31" max="31" width="20" style="2" customWidth="1"/>
-    <col min="32" max="32" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="11.42578125" style="2"/>
+    <col min="3" max="16" width="13.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="2" customWidth="1"/>
+    <col min="18" max="25" width="14.42578125" style="2" customWidth="1"/>
+    <col min="26" max="27" width="19.85546875" style="2" customWidth="1"/>
+    <col min="28" max="29" width="10.42578125" style="2" customWidth="1"/>
+    <col min="30" max="31" width="20.42578125" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="E3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -3531,199 +3733,301 @@
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
+      <c r="AD4" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="AE4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="AE5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="AE6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF6" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB7" s="4"/>
+      <c r="Z7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="AC7" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AD7" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F8" s="19">
         <v>0</v>
@@ -3755,11 +4059,11 @@
       <c r="O8" s="20">
         <v>8</v>
       </c>
-      <c r="P8" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>15</v>
+      <c r="P8" s="23">
+        <v>860</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>57.333333333333336</v>
       </c>
       <c r="R8" s="21">
         <v>0</v>
@@ -3767,14 +4071,14 @@
       <c r="S8" s="23">
         <v>0</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="23">
         <v>0</v>
       </c>
       <c r="U8" s="21"/>
       <c r="V8" s="19">
         <v>1</v>
       </c>
-      <c r="W8" s="20">
+      <c r="W8" s="23">
         <v>0</v>
       </c>
       <c r="X8" s="21">
@@ -3783,39 +4087,36 @@
       <c r="Y8" s="22">
         <v>0</v>
       </c>
-      <c r="Z8" s="20">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="21">
+      <c r="Z8" s="21">
         <v>2010</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AA8" s="18">
         <v>2050</v>
       </c>
+      <c r="AB8" s="16">
+        <v>47.491300000000003</v>
+      </c>
       <c r="AC8" s="16">
-        <v>47.491300000000003</v>
-      </c>
-      <c r="AD8" s="16">
         <v>12.818199999999999</v>
       </c>
+      <c r="AD8" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE8" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF8" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -3847,26 +4148,26 @@
       <c r="O9" s="20">
         <v>6</v>
       </c>
-      <c r="P9" s="22">
-        <v>0.02</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>2400</v>
-      </c>
-      <c r="R9" s="21">
-        <v>50000</v>
+      <c r="P9" s="23">
+        <v>17.2</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="R9" s="23">
+        <v>58.139534883720927</v>
       </c>
       <c r="S9" s="23">
         <v>6</v>
       </c>
-      <c r="T9" s="21">
-        <v>2000000</v>
+      <c r="T9" s="23">
+        <v>2325.5813953488373</v>
       </c>
       <c r="U9" s="21"/>
       <c r="V9" s="19">
         <v>1</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="23">
         <v>145591.30710000001</v>
       </c>
       <c r="X9" s="21">
@@ -3875,39 +4176,36 @@
       <c r="Y9" s="22">
         <v>0.35499999999999998</v>
       </c>
-      <c r="Z9" s="20">
-        <v>49.700699999999998</v>
-      </c>
-      <c r="AA9" s="21">
+      <c r="Z9" s="21">
         <v>2010</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AA9" s="18">
         <v>2050</v>
       </c>
+      <c r="AB9" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC9" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD9" s="16">
         <v>13.746700000000001</v>
       </c>
+      <c r="AD9" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE9" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF9" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F10" s="19">
         <v>0</v>
@@ -3939,26 +4237,26 @@
       <c r="O10" s="20">
         <v>6</v>
       </c>
-      <c r="P10" s="22">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>2300</v>
-      </c>
-      <c r="R10" s="21">
-        <v>50000</v>
+      <c r="P10" s="23">
+        <v>17.63</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>0.37391304347826088</v>
+      </c>
+      <c r="R10" s="23">
+        <v>58.139534883720927</v>
       </c>
       <c r="S10" s="23">
         <v>6.05</v>
       </c>
-      <c r="T10" s="21">
-        <v>2000000</v>
+      <c r="T10" s="23">
+        <v>2325.5813953488373</v>
       </c>
       <c r="U10" s="21"/>
       <c r="V10" s="19">
         <v>1</v>
       </c>
-      <c r="W10" s="20">
+      <c r="W10" s="23">
         <v>146591.30710000001</v>
       </c>
       <c r="X10" s="21">
@@ -3967,39 +4265,36 @@
       <c r="Y10" s="22">
         <v>0.33500000000000002</v>
       </c>
-      <c r="Z10" s="20">
-        <v>50.923699999999997</v>
-      </c>
-      <c r="AA10" s="21">
+      <c r="Z10" s="21">
         <v>2010</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AA10" s="18">
         <v>2050</v>
       </c>
+      <c r="AB10" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC10" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD10" s="16">
         <v>13.746700000000001</v>
       </c>
+      <c r="AD10" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE10" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF10" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F11" s="19">
         <v>0</v>
@@ -4031,26 +4326,26 @@
       <c r="O11" s="20">
         <v>6</v>
       </c>
-      <c r="P11" s="22">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>2300</v>
-      </c>
-      <c r="R11" s="21">
-        <v>50000</v>
+      <c r="P11" s="23">
+        <v>18.060000000000002</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0.37391304347826088</v>
+      </c>
+      <c r="R11" s="23">
+        <v>58.139534883720927</v>
       </c>
       <c r="S11" s="23">
         <v>6.1</v>
       </c>
-      <c r="T11" s="21">
-        <v>2000000</v>
+      <c r="T11" s="23">
+        <v>2325.5813953488373</v>
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="19">
         <v>1</v>
       </c>
-      <c r="W11" s="20">
+      <c r="W11" s="23">
         <v>147591.30710000001</v>
       </c>
       <c r="X11" s="21">
@@ -4059,39 +4354,36 @@
       <c r="Y11" s="22">
         <v>0.33200000000000002</v>
       </c>
-      <c r="Z11" s="20">
-        <v>52.648899999999998</v>
-      </c>
-      <c r="AA11" s="21">
+      <c r="Z11" s="21">
         <v>2010</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AA11" s="18">
         <v>2050</v>
       </c>
+      <c r="AB11" s="16">
+        <v>46.561055000000003</v>
+      </c>
       <c r="AC11" s="16">
-        <v>46.561055000000003</v>
-      </c>
-      <c r="AD11" s="16">
         <v>14.479570000000001</v>
       </c>
+      <c r="AD11" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE11" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF11" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F12" s="19">
         <v>0</v>
@@ -4123,26 +4415,26 @@
       <c r="O12" s="20">
         <v>6</v>
       </c>
-      <c r="P12" s="22">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>2200</v>
-      </c>
-      <c r="R12" s="21">
-        <v>50000</v>
+      <c r="P12" s="23">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>0.39090909090909093</v>
+      </c>
+      <c r="R12" s="23">
+        <v>58.139534883720927</v>
       </c>
       <c r="S12" s="23">
         <v>6.15</v>
       </c>
-      <c r="T12" s="21">
-        <v>2000000</v>
+      <c r="T12" s="23">
+        <v>2325.5813953488373</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="19">
         <v>1</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="23">
         <v>148591.30710000001</v>
       </c>
       <c r="X12" s="21">
@@ -4151,39 +4443,36 @@
       <c r="Y12" s="22">
         <v>0.31900000000000001</v>
       </c>
-      <c r="Z12" s="20">
-        <v>49.143999999999998</v>
-      </c>
-      <c r="AA12" s="21">
+      <c r="Z12" s="21">
         <v>2010</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AA12" s="18">
         <v>2050</v>
       </c>
+      <c r="AB12" s="16">
+        <v>47.055199999999999</v>
+      </c>
       <c r="AC12" s="16">
-        <v>47.055199999999999</v>
-      </c>
-      <c r="AD12" s="16">
         <v>9.9000199999999996</v>
       </c>
+      <c r="AD12" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE12" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF12" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F13" s="19">
         <v>0</v>
@@ -4215,26 +4504,26 @@
       <c r="O13" s="20">
         <v>4</v>
       </c>
-      <c r="P13" s="22">
-        <v>0.03</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R13" s="21">
-        <v>300000</v>
+      <c r="P13" s="23">
+        <v>25.8</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R13" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S13" s="23">
         <v>3.8</v>
       </c>
-      <c r="T13" s="21">
-        <v>1000000</v>
+      <c r="T13" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U13" s="21"/>
       <c r="V13" s="19">
         <v>1</v>
       </c>
-      <c r="W13" s="20">
+      <c r="W13" s="23">
         <v>41818.779699999999</v>
       </c>
       <c r="X13" s="21">
@@ -4243,39 +4532,36 @@
       <c r="Y13" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z13" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA13" s="21">
+      <c r="Z13" s="21">
         <v>2010</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AA13" s="18">
         <v>2050</v>
       </c>
+      <c r="AB13" s="16">
+        <v>47.066462000000001</v>
+      </c>
       <c r="AC13" s="16">
-        <v>47.066462000000001</v>
-      </c>
-      <c r="AD13" s="16">
         <v>9.9157949999999992</v>
       </c>
+      <c r="AD13" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE13" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF13" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F14" s="19">
         <v>0</v>
@@ -4307,26 +4593,26 @@
       <c r="O14" s="20">
         <v>4</v>
       </c>
-      <c r="P14" s="22">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R14" s="21">
-        <v>300000</v>
+      <c r="P14" s="23">
+        <v>27.52</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R14" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S14" s="23">
         <v>3.85</v>
       </c>
-      <c r="T14" s="21">
-        <v>1000000</v>
+      <c r="T14" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U14" s="21"/>
       <c r="V14" s="19">
         <v>1</v>
       </c>
-      <c r="W14" s="20">
+      <c r="W14" s="23">
         <v>42818.779699999999</v>
       </c>
       <c r="X14" s="21">
@@ -4335,39 +4621,36 @@
       <c r="Y14" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z14" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA14" s="21">
+      <c r="Z14" s="21">
         <v>2010</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AA14" s="18">
         <v>2050</v>
       </c>
+      <c r="AB14" s="16">
+        <v>47.491300000000003</v>
+      </c>
       <c r="AC14" s="16">
-        <v>47.491300000000003</v>
-      </c>
-      <c r="AD14" s="16">
         <v>12.818199999999999</v>
       </c>
+      <c r="AD14" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE14" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF14" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F15" s="19">
         <v>0</v>
@@ -4399,26 +4682,26 @@
       <c r="O15" s="20">
         <v>4</v>
       </c>
-      <c r="P15" s="22">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="Q15" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R15" s="21">
-        <v>300000</v>
+      <c r="P15" s="23">
+        <v>29.240000000000002</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R15" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S15" s="23">
         <v>3.9</v>
       </c>
-      <c r="T15" s="21">
-        <v>1000000</v>
+      <c r="T15" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U15" s="21"/>
       <c r="V15" s="19">
         <v>1</v>
       </c>
-      <c r="W15" s="20">
+      <c r="W15" s="23">
         <v>43818.779699999999</v>
       </c>
       <c r="X15" s="21">
@@ -4427,39 +4710,36 @@
       <c r="Y15" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z15" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA15" s="21">
+      <c r="Z15" s="21">
         <v>2010</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AA15" s="18">
         <v>2050</v>
       </c>
+      <c r="AB15" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC15" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD15" s="16">
         <v>13.746700000000001</v>
       </c>
-      <c r="AE15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF15" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE15" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F16" s="19">
         <v>0</v>
@@ -4491,26 +4771,26 @@
       <c r="O16" s="20">
         <v>4</v>
       </c>
-      <c r="P16" s="22">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R16" s="21">
-        <v>300000</v>
+      <c r="P16" s="23">
+        <v>30.959999999999997</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R16" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S16" s="23">
         <v>3.95</v>
       </c>
-      <c r="T16" s="21">
-        <v>1000000</v>
+      <c r="T16" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U16" s="21"/>
       <c r="V16" s="19">
         <v>1</v>
       </c>
-      <c r="W16" s="20">
+      <c r="W16" s="23">
         <v>44818.779699999999</v>
       </c>
       <c r="X16" s="21">
@@ -4519,41 +4799,38 @@
       <c r="Y16" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z16" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA16" s="21">
+      <c r="Z16" s="21">
         <v>2010</v>
       </c>
-      <c r="AB16" s="18">
+      <c r="AA16" s="18">
         <v>2050</v>
       </c>
+      <c r="AB16" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC16" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD16" s="16">
         <v>13.746700000000001</v>
       </c>
-      <c r="AE16" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF16" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD16" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE16" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F17" s="19">
         <v>0</v>
@@ -4585,26 +4862,26 @@
       <c r="O17" s="20">
         <v>4</v>
       </c>
-      <c r="P17" s="22">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R17" s="21">
-        <v>300000</v>
+      <c r="P17" s="23">
+        <v>32.68</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R17" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S17" s="23">
         <v>4</v>
       </c>
-      <c r="T17" s="21">
-        <v>1000000</v>
+      <c r="T17" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="19">
         <v>1</v>
       </c>
-      <c r="W17" s="20">
+      <c r="W17" s="23">
         <v>45818.779699999999</v>
       </c>
       <c r="X17" s="21">
@@ -4613,39 +4890,36 @@
       <c r="Y17" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z17" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA17" s="21">
+      <c r="Z17" s="21">
         <v>2010</v>
       </c>
-      <c r="AB17" s="18">
+      <c r="AA17" s="18">
         <v>2050</v>
       </c>
+      <c r="AB17" s="16">
+        <v>46.561055000000003</v>
+      </c>
       <c r="AC17" s="16">
-        <v>46.561055000000003</v>
-      </c>
-      <c r="AD17" s="16">
         <v>14.479570000000001</v>
       </c>
+      <c r="AD17" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE17" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF17" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F18" s="19">
         <v>0</v>
@@ -4677,26 +4951,26 @@
       <c r="O18" s="20">
         <v>4</v>
       </c>
-      <c r="P18" s="22">
-        <v>0.04</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R18" s="21">
-        <v>300000</v>
+      <c r="P18" s="23">
+        <v>34.4</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R18" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S18" s="23">
         <v>4.05</v>
       </c>
-      <c r="T18" s="21">
-        <v>1000000</v>
+      <c r="T18" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U18" s="21"/>
       <c r="V18" s="19">
         <v>1</v>
       </c>
-      <c r="W18" s="20">
+      <c r="W18" s="23">
         <v>46818.779699999999</v>
       </c>
       <c r="X18" s="21">
@@ -4705,39 +4979,36 @@
       <c r="Y18" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z18" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA18" s="21">
+      <c r="Z18" s="21">
         <v>2010</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AA18" s="18">
         <v>2050</v>
       </c>
+      <c r="AB18" s="16">
+        <v>47.055199999999999</v>
+      </c>
       <c r="AC18" s="16">
-        <v>47.055199999999999</v>
-      </c>
-      <c r="AD18" s="16">
         <v>9.9000199999999996</v>
       </c>
+      <c r="AD18" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE18" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF18" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F19" s="19">
         <v>0</v>
@@ -4769,26 +5040,26 @@
       <c r="O19" s="20">
         <v>4</v>
       </c>
-      <c r="P19" s="22">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R19" s="21">
-        <v>300000</v>
+      <c r="P19" s="23">
+        <v>36.120000000000005</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R19" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S19" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="T19" s="21">
-        <v>1000000</v>
+      <c r="T19" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="19">
         <v>1</v>
       </c>
-      <c r="W19" s="20">
+      <c r="W19" s="23">
         <v>47818.779699999999</v>
       </c>
       <c r="X19" s="21">
@@ -4797,39 +5068,36 @@
       <c r="Y19" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z19" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA19" s="21">
+      <c r="Z19" s="21">
         <v>2010</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AA19" s="18">
         <v>2050</v>
       </c>
+      <c r="AB19" s="16">
+        <v>47.066462000000001</v>
+      </c>
       <c r="AC19" s="16">
-        <v>47.066462000000001</v>
-      </c>
-      <c r="AD19" s="16">
         <v>9.9157949999999992</v>
       </c>
+      <c r="AD19" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE19" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF19" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F20" s="19">
         <v>0</v>
@@ -4861,26 +5129,26 @@
       <c r="O20" s="20">
         <v>4</v>
       </c>
-      <c r="P20" s="22">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R20" s="21">
-        <v>300000</v>
+      <c r="P20" s="23">
+        <v>37.839999999999996</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R20" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S20" s="23">
         <v>4.1500000000000004</v>
       </c>
-      <c r="T20" s="21">
-        <v>1000000</v>
+      <c r="T20" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U20" s="21"/>
       <c r="V20" s="19">
         <v>1</v>
       </c>
-      <c r="W20" s="20">
+      <c r="W20" s="23">
         <v>48818.779699999999</v>
       </c>
       <c r="X20" s="21">
@@ -4889,39 +5157,36 @@
       <c r="Y20" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z20" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA20" s="21">
+      <c r="Z20" s="21">
         <v>2010</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AA20" s="18">
         <v>2050</v>
       </c>
+      <c r="AB20" s="16">
+        <v>47.491300000000003</v>
+      </c>
       <c r="AC20" s="16">
-        <v>47.491300000000003</v>
-      </c>
-      <c r="AD20" s="16">
         <v>12.818199999999999</v>
       </c>
+      <c r="AD20" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE20" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF20" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F21" s="19">
         <v>0</v>
@@ -4953,26 +5218,26 @@
       <c r="O21" s="20">
         <v>4</v>
       </c>
-      <c r="P21" s="22">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>1800</v>
-      </c>
-      <c r="R21" s="21">
-        <v>300000</v>
+      <c r="P21" s="23">
+        <v>39.56</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="R21" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S21" s="23">
         <v>4.2</v>
       </c>
-      <c r="T21" s="21">
-        <v>1000000</v>
+      <c r="T21" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U21" s="21"/>
       <c r="V21" s="19">
         <v>1</v>
       </c>
-      <c r="W21" s="20">
+      <c r="W21" s="23">
         <v>49818.779699999999</v>
       </c>
       <c r="X21" s="21">
@@ -4981,39 +5246,36 @@
       <c r="Y21" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z21" s="20">
-        <v>72</v>
-      </c>
-      <c r="AA21" s="21">
+      <c r="Z21" s="21">
         <v>2010</v>
       </c>
-      <c r="AB21" s="18">
+      <c r="AA21" s="18">
         <v>2050</v>
       </c>
+      <c r="AB21" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC21" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD21" s="16">
         <v>13.746700000000001</v>
       </c>
+      <c r="AD21" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE21" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF21" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F22" s="19">
         <v>0</v>
@@ -5045,26 +5307,26 @@
       <c r="O22" s="20">
         <v>2.5</v>
       </c>
-      <c r="P22" s="22">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="Q22" s="21">
-        <v>2000</v>
-      </c>
-      <c r="R22" s="21">
-        <v>100000</v>
+      <c r="P22" s="23">
+        <v>26.058</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="R22" s="23">
+        <v>116.27906976744185</v>
       </c>
       <c r="S22" s="23">
         <v>4.03</v>
       </c>
-      <c r="T22" s="21">
+      <c r="T22" s="23">
         <v>0</v>
       </c>
       <c r="U22" s="21"/>
       <c r="V22" s="19">
         <v>1</v>
       </c>
-      <c r="W22" s="20">
+      <c r="W22" s="23">
         <v>24781.499100000001</v>
       </c>
       <c r="X22" s="21">
@@ -5073,39 +5335,36 @@
       <c r="Y22" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z22" s="20">
-        <v>67.5</v>
-      </c>
-      <c r="AA22" s="21">
+      <c r="Z22" s="21">
         <v>2010</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AA22" s="18">
         <v>2050</v>
       </c>
+      <c r="AB22" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC22" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD22" s="16">
         <v>13.746700000000001</v>
       </c>
+      <c r="AD22" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE22" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF22" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F23" s="19">
         <v>0</v>
@@ -5137,26 +5396,26 @@
       <c r="O23" s="20">
         <v>2.5</v>
       </c>
-      <c r="P23" s="22">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="Q23" s="21">
-        <v>2000</v>
-      </c>
-      <c r="R23" s="21">
-        <v>100000</v>
+      <c r="P23" s="23">
+        <v>26.315999999999999</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="R23" s="23">
+        <v>116.27906976744185</v>
       </c>
       <c r="S23" s="23">
         <v>4.0599999999999996</v>
       </c>
-      <c r="T23" s="21">
+      <c r="T23" s="23">
         <v>0</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="19">
         <v>1</v>
       </c>
-      <c r="W23" s="20">
+      <c r="W23" s="23">
         <v>25781.499100000001</v>
       </c>
       <c r="X23" s="21">
@@ -5165,39 +5424,36 @@
       <c r="Y23" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z23" s="20">
-        <v>67.5</v>
-      </c>
-      <c r="AA23" s="21">
+      <c r="Z23" s="21">
         <v>2010</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AA23" s="18">
         <v>2050</v>
       </c>
+      <c r="AB23" s="16">
+        <v>46.561055000000003</v>
+      </c>
       <c r="AC23" s="16">
-        <v>46.561055000000003</v>
-      </c>
-      <c r="AD23" s="16">
         <v>14.479570000000001</v>
       </c>
+      <c r="AD23" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE23" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF23" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F24" s="19">
         <v>0</v>
@@ -5229,26 +5485,26 @@
       <c r="O24" s="20">
         <v>2.5</v>
       </c>
-      <c r="P24" s="22">
-        <v>3.09E-2</v>
-      </c>
-      <c r="Q24" s="21">
-        <v>2000</v>
-      </c>
-      <c r="R24" s="21">
-        <v>100000</v>
+      <c r="P24" s="23">
+        <v>26.574000000000002</v>
+      </c>
+      <c r="Q24" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="R24" s="23">
+        <v>116.27906976744185</v>
       </c>
       <c r="S24" s="23">
         <v>4.09</v>
       </c>
-      <c r="T24" s="21">
+      <c r="T24" s="23">
         <v>0</v>
       </c>
       <c r="U24" s="21"/>
       <c r="V24" s="19">
         <v>1</v>
       </c>
-      <c r="W24" s="20">
+      <c r="W24" s="23">
         <v>26781.499100000001</v>
       </c>
       <c r="X24" s="21">
@@ -5257,39 +5513,36 @@
       <c r="Y24" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z24" s="20">
-        <v>67.5</v>
-      </c>
-      <c r="AA24" s="21">
+      <c r="Z24" s="21">
         <v>2010</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AA24" s="18">
         <v>2050</v>
       </c>
+      <c r="AB24" s="16">
+        <v>47.055199999999999</v>
+      </c>
       <c r="AC24" s="16">
-        <v>47.055199999999999</v>
-      </c>
-      <c r="AD24" s="16">
         <v>9.9000199999999996</v>
       </c>
+      <c r="AD24" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE24" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF24" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F25" s="19">
         <v>0</v>
@@ -5321,26 +5574,26 @@
       <c r="O25" s="20">
         <v>2.5</v>
       </c>
-      <c r="P25" s="22">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>2000</v>
-      </c>
-      <c r="R25" s="21">
-        <v>100000</v>
+      <c r="P25" s="23">
+        <v>26.831999999999997</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="R25" s="23">
+        <v>116.27906976744185</v>
       </c>
       <c r="S25" s="23">
         <v>4.12</v>
       </c>
-      <c r="T25" s="21">
+      <c r="T25" s="23">
         <v>0</v>
       </c>
       <c r="U25" s="21"/>
       <c r="V25" s="19">
         <v>1</v>
       </c>
-      <c r="W25" s="20">
+      <c r="W25" s="23">
         <v>27781.499100000001</v>
       </c>
       <c r="X25" s="21">
@@ -5349,39 +5602,36 @@
       <c r="Y25" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z25" s="20">
-        <v>67.5</v>
-      </c>
-      <c r="AA25" s="21">
+      <c r="Z25" s="21">
         <v>2010</v>
       </c>
-      <c r="AB25" s="18">
+      <c r="AA25" s="18">
         <v>2050</v>
       </c>
+      <c r="AB25" s="16">
+        <v>47.066462000000001</v>
+      </c>
       <c r="AC25" s="16">
-        <v>47.066462000000001</v>
-      </c>
-      <c r="AD25" s="16">
         <v>9.9157949999999992</v>
       </c>
-      <c r="AE25" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF25" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD25" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE25" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F26" s="19">
         <v>0</v>
@@ -5413,26 +5663,26 @@
       <c r="O26" s="20">
         <v>2.5</v>
       </c>
-      <c r="P26" s="22">
-        <v>3.15E-2</v>
-      </c>
-      <c r="Q26" s="21">
-        <v>2000</v>
-      </c>
-      <c r="R26" s="21">
-        <v>100000</v>
+      <c r="P26" s="23">
+        <v>27.09</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="R26" s="23">
+        <v>116.27906976744185</v>
       </c>
       <c r="S26" s="23">
         <v>4.1500000000000004</v>
       </c>
-      <c r="T26" s="21">
+      <c r="T26" s="23">
         <v>0</v>
       </c>
       <c r="U26" s="21"/>
       <c r="V26" s="19">
         <v>1</v>
       </c>
-      <c r="W26" s="20">
+      <c r="W26" s="23">
         <v>28781.499100000001</v>
       </c>
       <c r="X26" s="21">
@@ -5441,39 +5691,36 @@
       <c r="Y26" s="22">
         <v>0.18099999999999999</v>
       </c>
-      <c r="Z26" s="20">
-        <v>67.5</v>
-      </c>
-      <c r="AA26" s="21">
+      <c r="Z26" s="21">
         <v>2010</v>
       </c>
-      <c r="AB26" s="18">
+      <c r="AA26" s="18">
         <v>2050</v>
       </c>
+      <c r="AB26" s="16">
+        <v>47.491300000000003</v>
+      </c>
       <c r="AC26" s="16">
-        <v>47.491300000000003</v>
-      </c>
-      <c r="AD26" s="16">
         <v>12.818199999999999</v>
       </c>
-      <c r="AE26" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF26" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD26" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE26" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F27" s="19">
         <v>0</v>
@@ -5505,26 +5752,26 @@
       <c r="O27" s="20">
         <v>2.5</v>
       </c>
-      <c r="P27" s="22">
-        <v>0.06</v>
-      </c>
-      <c r="Q27" s="21">
-        <v>2000</v>
-      </c>
-      <c r="R27" s="21">
-        <v>300000</v>
+      <c r="P27" s="23">
+        <v>51.6</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="R27" s="23">
+        <v>348.83720930232556</v>
       </c>
       <c r="S27" s="23">
         <v>3</v>
       </c>
-      <c r="T27" s="21">
-        <v>1000000</v>
+      <c r="T27" s="23">
+        <v>1162.7906976744187</v>
       </c>
       <c r="U27" s="21"/>
       <c r="V27" s="19">
         <v>1</v>
       </c>
-      <c r="W27" s="20">
+      <c r="W27" s="23">
         <v>43367.623399999997</v>
       </c>
       <c r="X27" s="21">
@@ -5533,27 +5780,30 @@
       <c r="Y27" s="22">
         <v>0.254</v>
       </c>
-      <c r="Z27" s="20">
-        <v>160.7424</v>
-      </c>
-      <c r="AA27" s="21">
+      <c r="Z27" s="21">
         <v>2010</v>
       </c>
-      <c r="AB27" s="18">
+      <c r="AA27" s="18">
         <v>2050</v>
       </c>
+      <c r="AB27" s="16">
+        <v>46.77</v>
+      </c>
       <c r="AC27" s="16">
-        <v>46.77</v>
-      </c>
-      <c r="AD27" s="16">
         <v>13.746700000000001</v>
       </c>
+      <c r="AD27" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="AE27" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF27" s="17" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S33" s="29"/>
+    </row>
+    <row r="34" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S34" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
